--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7284796666666667</v>
+        <v>0.535365</v>
       </c>
       <c r="H2">
-        <v>2.185439</v>
+        <v>1.606095</v>
       </c>
       <c r="I2">
-        <v>0.2080449530531628</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="J2">
-        <v>0.2080449530531627</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N2">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q2">
-        <v>0.04769623486877778</v>
+        <v>0.005546559855</v>
       </c>
       <c r="R2">
-        <v>0.429266113819</v>
+        <v>0.049919038695</v>
       </c>
       <c r="S2">
-        <v>0.0004422780557632833</v>
+        <v>5.453188938606502E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004422780557632833</v>
+        <v>5.453188938606502E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7284796666666667</v>
+        <v>0.535365</v>
       </c>
       <c r="H3">
-        <v>2.185439</v>
+        <v>1.606095</v>
       </c>
       <c r="I3">
-        <v>0.2080449530531628</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="J3">
-        <v>0.2080449530531627</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>77.839292</v>
       </c>
       <c r="O3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q3">
-        <v>18.90144716324311</v>
+        <v>13.89081085386</v>
       </c>
       <c r="R3">
-        <v>170.113024469188</v>
+        <v>125.01729768474</v>
       </c>
       <c r="S3">
-        <v>0.1752695013656915</v>
+        <v>0.1365697262389761</v>
       </c>
       <c r="T3">
-        <v>0.1752695013656915</v>
+        <v>0.1365697262389761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7284796666666667</v>
+        <v>0.535365</v>
       </c>
       <c r="H4">
-        <v>2.185439</v>
+        <v>1.606095</v>
       </c>
       <c r="I4">
-        <v>0.2080449530531628</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="J4">
-        <v>0.2080449530531627</v>
+        <v>0.1618182173563651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.359551</v>
       </c>
       <c r="O4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q4">
-        <v>3.486880308654334</v>
+        <v>2.562533673705</v>
       </c>
       <c r="R4">
-        <v>31.381922777889</v>
+        <v>23.062803063345</v>
       </c>
       <c r="S4">
-        <v>0.03233317363170796</v>
+        <v>0.02519395922800294</v>
       </c>
       <c r="T4">
-        <v>0.03233317363170796</v>
+        <v>0.02519395922800294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>6.177813</v>
       </c>
       <c r="I5">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670297</v>
       </c>
       <c r="J5">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670296</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N5">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O5">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P5">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q5">
-        <v>0.1348280230303333</v>
+        <v>0.02133473398366667</v>
       </c>
       <c r="R5">
-        <v>1.213452207273</v>
+        <v>0.192012605853</v>
       </c>
       <c r="S5">
-        <v>0.00125023444832326</v>
+        <v>0.0002097558458022686</v>
       </c>
       <c r="T5">
-        <v>0.00125023444832326</v>
+        <v>0.0002097558458022686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.177813</v>
       </c>
       <c r="I6">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670297</v>
       </c>
       <c r="J6">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>77.839292</v>
       </c>
       <c r="O6">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P6">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q6">
         <v>53.43073222537734</v>
@@ -818,10 +818,10 @@
         <v>480.876590028396</v>
       </c>
       <c r="S6">
-        <v>0.4954529520341162</v>
+        <v>0.52531278048035</v>
       </c>
       <c r="T6">
-        <v>0.4954529520341162</v>
+        <v>0.5253127804803499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.177813</v>
       </c>
       <c r="I7">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670297</v>
       </c>
       <c r="J7">
-        <v>0.588102809346872</v>
+        <v>0.6224306076670296</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.359551</v>
       </c>
       <c r="O7">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P7">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q7">
         <v>9.856735649107002</v>
@@ -880,10 +880,10 @@
         <v>88.71062084196301</v>
       </c>
       <c r="S7">
-        <v>0.09139962286443258</v>
+        <v>0.09690807134087744</v>
       </c>
       <c r="T7">
-        <v>0.09139962286443258</v>
+        <v>0.09690807134087744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>2.141396</v>
       </c>
       <c r="I8">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="J8">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N8">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O8">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P8">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q8">
-        <v>0.04673501596844444</v>
+        <v>0.007395192119555556</v>
       </c>
       <c r="R8">
-        <v>0.420615143716</v>
+        <v>0.06655672907599999</v>
       </c>
       <c r="S8">
-        <v>0.0004333648569002711</v>
+        <v>7.270701285027478E-05</v>
       </c>
       <c r="T8">
-        <v>0.0004333648569002711</v>
+        <v>7.270701285027479E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.141396</v>
       </c>
       <c r="I9">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="J9">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>77.839292</v>
       </c>
       <c r="O9">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P9">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q9">
         <v>18.52052761462578</v>
@@ -1004,10 +1004,10 @@
         <v>166.684748531632</v>
       </c>
       <c r="S9">
-        <v>0.1717373073082737</v>
+        <v>0.1820875262604257</v>
       </c>
       <c r="T9">
-        <v>0.1717373073082737</v>
+        <v>0.1820875262604257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.141396</v>
       </c>
       <c r="I10">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="J10">
-        <v>0.2038522375999652</v>
+        <v>0.2157511749766052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.359551</v>
       </c>
       <c r="O10">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P10">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q10">
         <v>3.416609452577333</v>
@@ -1066,10 +1066,10 @@
         <v>30.749485073196</v>
       </c>
       <c r="S10">
-        <v>0.03168156543479132</v>
+        <v>0.03359094170332923</v>
       </c>
       <c r="T10">
-        <v>0.03168156543479132</v>
+        <v>0.03359094170332925</v>
       </c>
     </row>
   </sheetData>
